--- a/Web Components.xlsx
+++ b/Web Components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 Live Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC97AA6-AEB1-4E66-8BC8-8BC53821AA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189BC40F-2EEB-4491-AA5C-ACC978C9BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7DAD817-45F1-498D-A2CD-1B4820F80918}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>component</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>option</t>
+  </si>
+  <si>
+    <t>radio button</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>type="radio"</t>
+  </si>
+  <si>
+    <t>check box</t>
+  </si>
+  <si>
+    <t>type="checkbox"</t>
   </si>
 </sst>
 </file>
@@ -451,7 +466,7 @@
   <dimension ref="C3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -460,7 +475,7 @@
     <col min="3" max="3" width="23.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -521,16 +536,32 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C9" s="2"/>

--- a/Web Components.xlsx
+++ b/Web Components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 Live Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189BC40F-2EEB-4491-AA5C-ACC978C9BE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCD82CD-345A-4192-BFEB-798A3097B979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7DAD817-45F1-498D-A2CD-1B4820F80918}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>component</t>
   </si>
@@ -88,6 +88,36 @@
   </si>
   <si>
     <t>type="checkbox"</t>
+  </si>
+  <si>
+    <t>Frames</t>
+  </si>
+  <si>
+    <t>iframe/frame</t>
+  </si>
+  <si>
+    <t>WebTable</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>table heading</t>
+  </si>
+  <si>
+    <t>thead</t>
+  </si>
+  <si>
+    <t>row in table</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>columns in table</t>
+  </si>
+  <si>
+    <t>td</t>
   </si>
 </sst>
 </file>
@@ -145,10 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,14 +499,14 @@
   <dimension ref="C3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -497,7 +530,7 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -511,7 +544,7 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -525,7 +558,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -539,7 +572,7 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -553,7 +586,7 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -564,44 +597,84 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.4">
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
